--- a/humor/baihua.xlsx
+++ b/humor/baihua.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="心智" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>白话</t>
   </si>
@@ -52,6 +52,76 @@
   </si>
   <si>
     <t>靓仔靓女</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>衣家</t>
+  </si>
+  <si>
+    <t>称呼</t>
+  </si>
+  <si>
+    <t>诶</t>
+  </si>
+  <si>
+    <t>矛翻回喔</t>
+  </si>
+  <si>
+    <t>冲凉</t>
+  </si>
+  <si>
+    <t>乜野事</t>
+  </si>
+  <si>
+    <t>咩事</t>
+  </si>
+  <si>
+    <t>心智七个阶段</t>
+  </si>
+  <si>
+    <t>动物本能</t>
+  </si>
+  <si>
+    <t>说话办事不过脑子，对自己完全不自知</t>
+  </si>
+  <si>
+    <t>自我反思</t>
+  </si>
+  <si>
+    <t>开始关注自己行为背后的原因，会思考自己为啥会这么说，为啥会这么做，凡是懂得思考</t>
+  </si>
+  <si>
+    <t>掌控情绪</t>
+  </si>
+  <si>
+    <t>逐渐接纳自己，减少内耗，心态趋于平和稳定，自我与本我没有对抗。理性而不受外界干扰</t>
+  </si>
+  <si>
+    <t>知行合一</t>
+  </si>
+  <si>
+    <t>经过长期的自我觉察和自我反思以后，行动力开始越来越强，加上时间管理和心态管理，会变得越来越自律；
+有大脑意识来控制行为异常的专注，而行动时呢，会由行动来验证他的思想，执行力超强</t>
+  </si>
+  <si>
+    <t>专注忘我</t>
+  </si>
+  <si>
+    <t>进入极致专注的状态，对要达成的目标和结果，进入完全的疯狂痴迷状态</t>
+  </si>
+  <si>
+    <t>利他之心涌现</t>
+  </si>
+  <si>
+    <t>生命力创造力逐渐增强，内心呢会不断涌现出慈悲</t>
+  </si>
+  <si>
+    <t>开悟觉醒，找到自己</t>
+  </si>
+  <si>
+    <t>找到人生的使命和目标，然后专注恒久为之奋斗一生</t>
   </si>
 </sst>
 </file>
@@ -60,9 +130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -89,6 +166,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,90 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -194,6 +210,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -201,17 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,21 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,11 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,11 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,139 +613,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1042,16 +1118,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1101,6 +1177,42 @@
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1113,14 +1225,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/humor/baihua.xlsx
+++ b/humor/baihua.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="7055" windowHeight="1451"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>白话</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>咩事</t>
+  </si>
+  <si>
+    <t>点解呢</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>心智七个阶段</t>
@@ -129,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,28 +150,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,21 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -203,32 +248,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,52 +265,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +308,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,13 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,43 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,109 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,13 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,26 +589,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,16 +619,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,115 +637,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1215,6 +1221,16 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1227,7 +1243,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1239,64 +1255,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/humor/baihua.xlsx
+++ b/humor/baihua.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7055" windowHeight="1451"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>白话</t>
   </si>
@@ -81,7 +81,91 @@
     <t>点解呢</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>乜野料</t>
+  </si>
+  <si>
+    <t>什么情况</t>
+  </si>
+  <si>
+    <t>所仔</t>
+  </si>
+  <si>
+    <t>小可爱</t>
+  </si>
+  <si>
+    <t>或，某</t>
+  </si>
+  <si>
+    <t>哦~没有</t>
+  </si>
+  <si>
+    <t>哇，甘某</t>
+  </si>
+  <si>
+    <t>哇，这么没***</t>
+  </si>
+  <si>
+    <t>咦</t>
+  </si>
+  <si>
+    <t>得唔得</t>
+  </si>
+  <si>
+    <t>行不行</t>
+  </si>
+  <si>
+    <t>总有***噶</t>
+  </si>
+  <si>
+    <t>还有**呢</t>
+  </si>
+  <si>
+    <t>系嘛</t>
+  </si>
+  <si>
+    <t>是吗</t>
+  </si>
+  <si>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>边个</t>
+  </si>
+  <si>
+    <t>好竟</t>
+  </si>
+  <si>
+    <t>好厉害</t>
+  </si>
+  <si>
+    <t>甘唔昂咯</t>
+  </si>
+  <si>
+    <t>那就对了</t>
+  </si>
+  <si>
+    <t>哼，你能多着啦</t>
+  </si>
+  <si>
+    <t>你想多了</t>
+  </si>
+  <si>
+    <t>得昧啊</t>
+  </si>
+  <si>
+    <t>可以了吗</t>
+  </si>
+  <si>
+    <t>来真噶</t>
+  </si>
+  <si>
+    <t>我怕你啦</t>
+  </si>
+  <si>
+    <t>败啦</t>
+  </si>
+  <si>
+    <t>别了，完了</t>
   </si>
   <si>
     <t>心智七个阶段</t>
@@ -135,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,44 +234,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +328,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,6 +346,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -249,45 +364,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +392,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,25 +530,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,139 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +583,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,11 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +643,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,36 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -607,145 +691,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1226,9 +1310,123 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1255,64 +1453,64 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
